--- a/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.27944874839152</v>
+        <v>89.80499360375804</v>
       </c>
       <c r="D2" t="n">
-        <v>2.932771017955761</v>
+        <v>2.581225492344307</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.02821594743358</v>
+        <v>89.31872170081475</v>
       </c>
       <c r="D3" t="n">
-        <v>2.801144159029343</v>
+        <v>2.701931734549028</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.35137306936726</v>
+        <v>88.53543954047808</v>
       </c>
       <c r="D4" t="n">
-        <v>2.5455477970753</v>
+        <v>2.449535912992597</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.18598183502976</v>
+        <v>87.2714504405817</v>
       </c>
       <c r="D5" t="n">
-        <v>2.828790833350292</v>
+        <v>2.448375879924102</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.99313339008906</v>
+        <v>85.61721824446997</v>
       </c>
       <c r="D6" t="n">
-        <v>2.980575275415093</v>
+        <v>2.810653372582638</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.00790886746262</v>
+        <v>84.89794116221123</v>
       </c>
       <c r="D7" t="n">
-        <v>2.872883530823371</v>
+        <v>2.758330427185554</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.24388655387826</v>
+        <v>84.46013921395817</v>
       </c>
       <c r="D8" t="n">
-        <v>2.889807966700383</v>
+        <v>2.645519174652815</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.90850554264404</v>
+        <v>82.99976106345093</v>
       </c>
       <c r="D9" t="n">
-        <v>2.737642341231829</v>
+        <v>3.17479895672681</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.85533523440689</v>
+        <v>81.91934547534387</v>
       </c>
       <c r="D10" t="n">
-        <v>2.417070947970976</v>
+        <v>2.689480272683002</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.43125299646847</v>
+        <v>80.61299302342094</v>
       </c>
       <c r="D11" t="n">
-        <v>2.771787971783512</v>
+        <v>2.956773533602394</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.27183900037359</v>
+        <v>80.48464908185497</v>
       </c>
       <c r="D12" t="n">
-        <v>2.802017558733131</v>
+        <v>2.763160968815574</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.14304037208572</v>
+        <v>79.1517327805857</v>
       </c>
       <c r="D13" t="n">
-        <v>2.683210648256126</v>
+        <v>2.615155697926785</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.97077420953363</v>
+        <v>77.77620816276909</v>
       </c>
       <c r="D14" t="n">
-        <v>2.680546573894804</v>
+        <v>2.692599993816957</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.07404302251635</v>
+        <v>76.78329521249941</v>
       </c>
       <c r="D15" t="n">
-        <v>2.660687493581372</v>
+        <v>2.427114011500665</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.32679207601346</v>
+        <v>76.04673972450617</v>
       </c>
       <c r="D16" t="n">
-        <v>2.672937354541419</v>
+        <v>2.715965322956504</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.8425545959863</v>
+        <v>75.13443330563446</v>
       </c>
       <c r="D17" t="n">
-        <v>2.667086808622359</v>
+        <v>2.610095112218307</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.72572645563281</v>
+        <v>73.65175812046718</v>
       </c>
       <c r="D18" t="n">
-        <v>2.774088402241043</v>
+        <v>2.493779538974526</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.70986963757302</v>
+        <v>72.73083477374519</v>
       </c>
       <c r="D19" t="n">
-        <v>2.557497720026294</v>
+        <v>2.71409561354055</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.68935549455072</v>
+        <v>72.14620284976677</v>
       </c>
       <c r="D20" t="n">
-        <v>2.644183926926001</v>
+        <v>2.733182672757018</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.04282847725891</v>
+        <v>71.07545235079638</v>
       </c>
       <c r="D21" t="n">
-        <v>2.549110407676138</v>
+        <v>2.464338120433507</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.94175091792468</v>
+        <v>69.81019728658607</v>
       </c>
       <c r="D22" t="n">
-        <v>2.961905284843545</v>
+        <v>2.598953266754628</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.21620517350348</v>
+        <v>69.31616620651782</v>
       </c>
       <c r="D23" t="n">
-        <v>2.938544877305634</v>
+        <v>2.874974488213427</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.88371031015372</v>
+        <v>67.9551795728881</v>
       </c>
       <c r="D24" t="n">
-        <v>2.824850458842672</v>
+        <v>3.121610257507275</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.05678684595441</v>
+        <v>66.43857108094301</v>
       </c>
       <c r="D25" t="n">
-        <v>3.052988305189652</v>
+        <v>2.794133522985056</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.81224395147321</v>
+        <v>65.83062153779258</v>
       </c>
       <c r="D26" t="n">
-        <v>2.217143466113363</v>
+        <v>3.080416143586423</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.04498975781993</v>
+        <v>65.18263386421984</v>
       </c>
       <c r="D27" t="n">
-        <v>2.649466769283694</v>
+        <v>2.852484741256849</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.77953092142264</v>
+        <v>64.29215333390422</v>
       </c>
       <c r="D28" t="n">
-        <v>2.764234330678778</v>
+        <v>2.961791581936671</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.94905677900856</v>
+        <v>63.20799503260919</v>
       </c>
       <c r="D29" t="n">
-        <v>2.582589074264849</v>
+        <v>2.834765637711663</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.29684247437294</v>
+        <v>61.85253317271504</v>
       </c>
       <c r="D30" t="n">
-        <v>2.551122739151134</v>
+        <v>2.951918597637861</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.25131392222112</v>
+        <v>61.00904509676533</v>
       </c>
       <c r="D31" t="n">
-        <v>2.969202085815673</v>
+        <v>2.930574064510731</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.84756328145883</v>
+        <v>59.50172694118643</v>
       </c>
       <c r="D32" t="n">
-        <v>3.074629096271083</v>
+        <v>2.870098634263082</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.67596764059623</v>
+        <v>58.11155155481765</v>
       </c>
       <c r="D33" t="n">
-        <v>2.627923370117402</v>
+        <v>2.762743651852766</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.04525340200586</v>
+        <v>58.36145010858476</v>
       </c>
       <c r="D34" t="n">
-        <v>2.89640308767473</v>
+        <v>3.326389875640339</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.33355603132901</v>
+        <v>56.97704826194471</v>
       </c>
       <c r="D35" t="n">
-        <v>2.907220759829323</v>
+        <v>2.834158424819869</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.91718289618139</v>
+        <v>56.47586376405744</v>
       </c>
       <c r="D36" t="n">
-        <v>3.287966214337036</v>
+        <v>3.372294836694561</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.27979747704164</v>
+        <v>54.84764275032396</v>
       </c>
       <c r="D37" t="n">
-        <v>2.81975801107175</v>
+        <v>2.823119138371167</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.36614675429237</v>
+        <v>53.96943339856082</v>
       </c>
       <c r="D38" t="n">
-        <v>3.498897085631722</v>
+        <v>2.627289709858582</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.89231345157697</v>
+        <v>52.62351502820395</v>
       </c>
       <c r="D39" t="n">
-        <v>2.508016585550812</v>
+        <v>2.861445705042947</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.80887719700211</v>
+        <v>52.29999967894209</v>
       </c>
       <c r="D40" t="n">
-        <v>3.303274519482522</v>
+        <v>2.764326983758933</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.26513401981109</v>
+        <v>50.39904140845029</v>
       </c>
       <c r="D41" t="n">
-        <v>3.103335709709292</v>
+        <v>3.019660412157571</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.65944583002468</v>
+        <v>49.8307098642895</v>
       </c>
       <c r="D42" t="n">
-        <v>2.952018993169895</v>
+        <v>2.910268768666052</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.3380566395243</v>
+        <v>49.24486513131731</v>
       </c>
       <c r="D43" t="n">
-        <v>2.930791450510772</v>
+        <v>2.442486633423833</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.09534203668036</v>
+        <v>48.10831493260309</v>
       </c>
       <c r="D44" t="n">
-        <v>2.679494715349107</v>
+        <v>2.601441445604374</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.94099460029</v>
+        <v>47.20029558106366</v>
       </c>
       <c r="D45" t="n">
-        <v>3.036715731919184</v>
+        <v>3.257788465241902</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.04407890369697</v>
+        <v>46.15058890058599</v>
       </c>
       <c r="D46" t="n">
-        <v>2.74267059352768</v>
+        <v>2.923612740559776</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.09525920147367</v>
+        <v>45.22934352822215</v>
       </c>
       <c r="D47" t="n">
-        <v>3.452020962080862</v>
+        <v>2.721481933584839</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.76990025234232</v>
+        <v>44.08551289436114</v>
       </c>
       <c r="D48" t="n">
-        <v>3.100162618652717</v>
+        <v>2.968624296283297</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.03387957096804</v>
+        <v>42.55948756211851</v>
       </c>
       <c r="D49" t="n">
-        <v>2.720877508061728</v>
+        <v>2.898848565686747</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.83778441578224</v>
+        <v>42.34082233813547</v>
       </c>
       <c r="D50" t="n">
-        <v>3.02426830288576</v>
+        <v>3.15079094467685</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.6014770218456</v>
+        <v>40.92296646497716</v>
       </c>
       <c r="D51" t="n">
-        <v>2.942569089617344</v>
+        <v>3.022330328294135</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.6270998006943</v>
+        <v>40.18575666199717</v>
       </c>
       <c r="D52" t="n">
-        <v>3.141335800228179</v>
+        <v>3.691246632338072</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.43409854189986</v>
+        <v>38.50093595445542</v>
       </c>
       <c r="D53" t="n">
-        <v>2.942195256224395</v>
+        <v>2.94371227399361</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.31334399241423</v>
+        <v>38.23704375738897</v>
       </c>
       <c r="D54" t="n">
-        <v>2.408219178808011</v>
+        <v>2.658668155281386</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.78004728754327</v>
+        <v>37.17483001939494</v>
       </c>
       <c r="D55" t="n">
-        <v>2.732902680739149</v>
+        <v>2.517962030375428</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.84859228486118</v>
+        <v>35.84640228915445</v>
       </c>
       <c r="D56" t="n">
-        <v>2.795807329074309</v>
+        <v>2.814396493741222</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.31195797316143</v>
+        <v>35.05988931334345</v>
       </c>
       <c r="D57" t="n">
-        <v>3.440822914148686</v>
+        <v>3.190986406637951</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.23139926755323</v>
+        <v>33.90010959100737</v>
       </c>
       <c r="D58" t="n">
-        <v>3.026280536778751</v>
+        <v>3.067491259193881</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.22231007845191</v>
+        <v>32.80082188840075</v>
       </c>
       <c r="D59" t="n">
-        <v>3.035207555270022</v>
+        <v>3.086870714027336</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.9468466433326</v>
+        <v>32.75117701381424</v>
       </c>
       <c r="D60" t="n">
-        <v>3.320956345227566</v>
+        <v>3.036548593708199</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.32960944635104</v>
+        <v>31.04073658907407</v>
       </c>
       <c r="D61" t="n">
-        <v>2.985546837092198</v>
+        <v>3.290654462421528</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.49114613785515</v>
+        <v>30.00264106927726</v>
       </c>
       <c r="D62" t="n">
-        <v>2.952886081964851</v>
+        <v>3.056374150302965</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.88240248321765</v>
+        <v>29.07034316775072</v>
       </c>
       <c r="D63" t="n">
-        <v>3.607961640221475</v>
+        <v>2.817922153667871</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.86795351366925</v>
+        <v>28.03860052684872</v>
       </c>
       <c r="D64" t="n">
-        <v>3.535904750278452</v>
+        <v>2.96974381936299</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.02055166039827</v>
+        <v>26.31805907801707</v>
       </c>
       <c r="D65" t="n">
-        <v>3.201985482607781</v>
+        <v>2.856281066989532</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.16520014443875</v>
+        <v>25.71690863270128</v>
       </c>
       <c r="D66" t="n">
-        <v>2.999677487748668</v>
+        <v>3.178058518212804</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.61431826522536</v>
+        <v>24.82778687483257</v>
       </c>
       <c r="D67" t="n">
-        <v>2.971293626771103</v>
+        <v>3.21905106474187</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.82181722487471</v>
+        <v>24.55555846258946</v>
       </c>
       <c r="D68" t="n">
-        <v>2.934341223046241</v>
+        <v>3.561604663307872</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.89335426375877</v>
+        <v>22.83290230705901</v>
       </c>
       <c r="D69" t="n">
-        <v>3.167183399861097</v>
+        <v>3.257134419522157</v>
       </c>
     </row>
   </sheetData>
